--- a/data/trans_orig/P44C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{956A6DBA-828B-4E41-A8F8-F5D7390717C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B29E19A-4617-4A9A-9A17-0BDD20E61004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE8E1588-6F81-4496-9170-E8C0ECDFE824}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C2CAA46-4975-4D6E-BA42-8F517829C77C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="432">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -106,1132 +106,1150 @@
     <t>5,45%</t>
   </si>
   <si>
-    <t>27,42%</t>
+    <t>27,17%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
   </si>
   <si>
     <t>33,88%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>2,33%</t>
+    <t>2,28%</t>
   </si>
   <si>
     <t>4,23%</t>
@@ -1240,82 +1258,82 @@
     <t>22,84%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
   </si>
   <si>
     <t>53,75%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>52,94%</t>
   </si>
   <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AC2F0-8258-42E9-AA24-510CCFCB6717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF332391-8DE1-4417-9B67-EC9A3040A981}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2652,10 +2670,10 @@
         <v>34</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -2664,13 +2682,13 @@
         <v>15859</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2703,13 @@
         <v>4752</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2700,13 +2718,13 @@
         <v>5349</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2715,13 +2733,13 @@
         <v>10101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2754,13 @@
         <v>13157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2751,13 +2769,13 @@
         <v>20509</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -2766,18 +2784,18 @@
         <v>33666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2789,13 +2807,13 @@
         <v>2431</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2804,13 +2822,13 @@
         <v>3913</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2819,13 +2837,13 @@
         <v>6344</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2858,13 @@
         <v>7307</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2855,13 +2873,13 @@
         <v>9385</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2870,13 +2888,13 @@
         <v>16691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2909,13 @@
         <v>21008</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2906,13 +2924,13 @@
         <v>10339</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -2921,13 +2939,13 @@
         <v>31347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2960,13 @@
         <v>8595</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -2957,13 +2975,13 @@
         <v>11234</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M27" s="7">
         <v>18</v>
@@ -2972,13 +2990,13 @@
         <v>19829</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3011,13 @@
         <v>39341</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -3008,13 +3026,13 @@
         <v>34871</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -3023,18 +3041,18 @@
         <v>74212</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3046,13 +3064,13 @@
         <v>2984</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3061,13 +3079,13 @@
         <v>1315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3076,13 +3094,13 @@
         <v>4300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3115,13 @@
         <v>20836</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -3112,13 +3130,13 @@
         <v>20703</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -3127,13 +3145,13 @@
         <v>41539</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3166,13 @@
         <v>33243</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -3163,13 +3181,13 @@
         <v>27751</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -3178,13 +3196,13 @@
         <v>60994</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3217,13 @@
         <v>2027</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3214,13 +3232,13 @@
         <v>4910</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3229,13 +3247,13 @@
         <v>6937</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3268,13 @@
         <v>59090</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>51</v>
@@ -3265,13 +3283,13 @@
         <v>54680</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>102</v>
@@ -3280,13 +3298,13 @@
         <v>113770</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3321,13 @@
         <v>5416</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -3318,13 +3336,13 @@
         <v>6346</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -3333,13 +3351,13 @@
         <v>11761</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3372,13 @@
         <v>28142</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -3369,13 +3387,13 @@
         <v>36677</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M35" s="7">
         <v>58</v>
@@ -3384,13 +3402,13 @@
         <v>64819</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3423,13 @@
         <v>62656</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -3420,13 +3438,13 @@
         <v>45545</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M36" s="7">
         <v>97</v>
@@ -3435,13 +3453,13 @@
         <v>108201</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3474,13 @@
         <v>15373</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -3471,13 +3489,13 @@
         <v>21494</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -3486,13 +3504,13 @@
         <v>36867</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3525,13 @@
         <v>111587</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>100</v>
@@ -3522,13 +3540,13 @@
         <v>110061</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>196</v>
@@ -3537,18 +3555,18 @@
         <v>221648</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940B1DB0-D787-40BD-B365-134BD14DF877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034FC47A-0CC9-4D8B-903F-0DA7BDB52E58}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4375,13 +4393,13 @@
         <v>2135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4390,13 +4408,13 @@
         <v>2232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4405,13 +4423,13 @@
         <v>4367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4444,13 @@
         <v>6148</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4441,13 +4459,13 @@
         <v>4654</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4456,13 +4474,13 @@
         <v>10801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4495,13 @@
         <v>8661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -4492,13 +4510,13 @@
         <v>3123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4507,13 +4525,13 @@
         <v>11784</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4546,13 @@
         <v>8618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4543,13 +4561,13 @@
         <v>1027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4558,13 +4576,13 @@
         <v>9646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4597,13 @@
         <v>25561</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4594,13 +4612,13 @@
         <v>11037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -4609,18 +4627,18 @@
         <v>36598</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4632,13 +4650,13 @@
         <v>6876</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4647,13 +4665,13 @@
         <v>1115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -4662,13 +4680,13 @@
         <v>7992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4701,13 @@
         <v>5550</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -4698,13 +4716,13 @@
         <v>17129</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -4713,13 +4731,13 @@
         <v>22679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4752,13 @@
         <v>25355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4749,13 +4767,13 @@
         <v>14402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -4764,13 +4782,13 @@
         <v>39757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4803,13 @@
         <v>12650</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -4800,13 +4818,13 @@
         <v>5194</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -4815,13 +4833,13 @@
         <v>17844</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4854,13 @@
         <v>50431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -4851,13 +4869,13 @@
         <v>37840</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>77</v>
@@ -4866,18 +4884,18 @@
         <v>88271</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4889,13 +4907,13 @@
         <v>2799</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4904,13 +4922,13 @@
         <v>2359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -4919,13 +4937,13 @@
         <v>5158</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4958,13 @@
         <v>18413</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -4955,13 +4973,13 @@
         <v>12025</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -4970,13 +4988,13 @@
         <v>30438</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +5009,13 @@
         <v>54081</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H31" s="7">
         <v>36</v>
@@ -5006,13 +5024,13 @@
         <v>42506</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M31" s="7">
         <v>90</v>
@@ -5021,13 +5039,13 @@
         <v>96588</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5060,13 @@
         <v>9607</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -5057,13 +5075,13 @@
         <v>9502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -5072,13 +5090,13 @@
         <v>19109</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5111,13 @@
         <v>84899</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>56</v>
@@ -5108,13 +5126,13 @@
         <v>66393</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>144</v>
@@ -5123,13 +5141,13 @@
         <v>151293</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5164,13 @@
         <v>11809</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -5161,13 +5179,13 @@
         <v>5707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -5176,13 +5194,13 @@
         <v>17516</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5215,13 @@
         <v>30111</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -5212,13 +5230,13 @@
         <v>33808</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M35" s="7">
         <v>60</v>
@@ -5227,13 +5245,13 @@
         <v>63919</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5266,13 @@
         <v>88097</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -5263,13 +5281,13 @@
         <v>60032</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M36" s="7">
         <v>136</v>
@@ -5278,13 +5296,13 @@
         <v>148129</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5317,13 @@
         <v>30875</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -5314,13 +5332,13 @@
         <v>15723</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>285</v>
+        <v>60</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -5329,13 +5347,13 @@
         <v>46598</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5368,13 @@
         <v>160892</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>99</v>
@@ -5365,13 +5383,13 @@
         <v>115270</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>254</v>
@@ -5380,18 +5398,18 @@
         <v>276162</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5413,7 +5431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F82E2-A38E-4B4D-927F-AB4FFA8C9B4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FDBCB-E3C8-457D-A7F2-13862009FF36}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5430,7 +5448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6218,13 +6236,13 @@
         <v>1081</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6233,13 +6251,13 @@
         <v>4841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6248,13 +6266,13 @@
         <v>5922</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6287,13 @@
         <v>28515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -6284,13 +6302,13 @@
         <v>19952</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -6299,13 +6317,13 @@
         <v>48467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6338,13 @@
         <v>87641</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -6335,13 +6353,13 @@
         <v>30606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
@@ -6350,13 +6368,13 @@
         <v>118247</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6389,13 @@
         <v>18276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6386,13 +6404,13 @@
         <v>16548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -6401,13 +6419,13 @@
         <v>34824</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6440,13 @@
         <v>135513</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>113</v>
@@ -6437,13 +6455,13 @@
         <v>71947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>197</v>
@@ -6452,18 +6470,18 @@
         <v>207460</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6475,13 +6493,13 @@
         <v>6916</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6490,13 +6508,13 @@
         <v>4959</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -6505,13 +6523,13 @@
         <v>11875</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6544,13 @@
         <v>51987</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -6541,13 +6559,13 @@
         <v>54343</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
@@ -6556,13 +6574,13 @@
         <v>106330</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6595,13 @@
         <v>77579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -6592,13 +6610,13 @@
         <v>66296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -6607,13 +6625,13 @@
         <v>143875</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6646,13 @@
         <v>47781</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>352</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -6643,13 +6661,13 @@
         <v>34056</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="M27" s="7">
         <v>107</v>
@@ -6658,13 +6676,13 @@
         <v>81838</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6697,13 @@
         <v>184263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>267</v>
@@ -6694,13 +6712,13 @@
         <v>159655</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>473</v>
@@ -6709,18 +6727,18 @@
         <v>343918</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6732,13 +6750,13 @@
         <v>10382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -6747,13 +6765,13 @@
         <v>7235</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -6762,13 +6780,13 @@
         <v>17617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6801,13 @@
         <v>55781</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -6798,13 +6816,13 @@
         <v>56727</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>375</v>
       </c>
       <c r="M30" s="7">
         <v>190</v>
@@ -6813,13 +6831,13 @@
         <v>112508</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6852,13 @@
         <v>155501</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H31" s="7">
         <v>285</v>
@@ -6849,13 +6867,13 @@
         <v>166851</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>377</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M31" s="7">
         <v>508</v>
@@ -6864,13 +6882,13 @@
         <v>322352</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6903,13 @@
         <v>55212</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H32" s="7">
         <v>78</v>
@@ -6900,13 +6918,13 @@
         <v>44999</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>117</v>
+        <v>391</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M32" s="7">
         <v>157</v>
@@ -6915,13 +6933,13 @@
         <v>100211</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6954,13 @@
         <v>276875</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>487</v>
@@ -6951,13 +6969,13 @@
         <v>275812</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>883</v>
@@ -6966,13 +6984,13 @@
         <v>552688</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +7007,13 @@
         <v>18379</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H34" s="7">
         <v>29</v>
@@ -7004,13 +7022,13 @@
         <v>17036</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M34" s="7">
         <v>53</v>
@@ -7019,13 +7037,13 @@
         <v>35415</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7058,13 @@
         <v>136283</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H35" s="7">
         <v>236</v>
@@ -7055,13 +7073,13 @@
         <v>131022</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M35" s="7">
         <v>400</v>
@@ -7070,13 +7088,13 @@
         <v>267305</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7109,13 @@
         <v>320720</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H36" s="7">
         <v>444</v>
@@ -7106,13 +7124,13 @@
         <v>263753</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M36" s="7">
         <v>793</v>
@@ -7121,13 +7139,13 @@
         <v>584474</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7160,13 @@
         <v>121269</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H37" s="7">
         <v>158</v>
@@ -7157,13 +7175,13 @@
         <v>95603</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M37" s="7">
         <v>307</v>
@@ -7172,13 +7190,13 @@
         <v>216873</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7211,13 @@
         <v>596652</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>867</v>
@@ -7208,13 +7226,13 @@
         <v>507414</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>1553</v>
@@ -7223,18 +7241,18 @@
         <v>1104066</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B29E19A-4617-4A9A-9A17-0BDD20E61004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BD2FE1-EE90-48B6-9899-C92069FB8392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C2CAA46-4975-4D6E-BA42-8F517829C77C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E8706DE-DDE9-4B9D-9FA9-C2FC6D9908EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="433">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -106,1087 +106,1090 @@
     <t>5,45%</t>
   </si>
   <si>
-    <t>27,17%</t>
+    <t>26,41%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>16,99%</t>
+    <t>16,79%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>57,34%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>36,35%</t>
   </si>
   <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
   </si>
   <si>
     <t>56,33%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
   </si>
   <si>
     <t>64,89%</t>
@@ -1745,7 +1748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF332391-8DE1-4417-9B67-EC9A3040A981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CF3B63-05C3-4A6C-8497-BCD3FE2FD235}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2619,10 +2622,10 @@
         <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2631,13 +2634,13 @@
         <v>6589</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2655,13 @@
         <v>8405</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2667,13 +2670,13 @@
         <v>7454</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -2682,13 +2685,13 @@
         <v>15859</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2706,13 @@
         <v>4752</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2718,13 +2721,13 @@
         <v>5349</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2733,13 +2736,13 @@
         <v>10101</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2757,13 @@
         <v>13157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2769,13 +2772,13 @@
         <v>20509</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -2784,18 +2787,18 @@
         <v>33666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2807,13 +2810,13 @@
         <v>2431</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2822,13 +2825,13 @@
         <v>3913</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2837,13 +2840,13 @@
         <v>6344</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2861,13 @@
         <v>7307</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2873,13 +2876,13 @@
         <v>9385</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2888,13 +2891,13 @@
         <v>16691</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2912,13 @@
         <v>21008</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2924,13 +2927,13 @@
         <v>10339</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -2939,13 +2942,13 @@
         <v>31347</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2963,13 @@
         <v>8595</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -2975,13 +2978,13 @@
         <v>11234</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M27" s="7">
         <v>18</v>
@@ -2990,13 +2993,13 @@
         <v>19829</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3014,13 @@
         <v>39341</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -3026,13 +3029,13 @@
         <v>34871</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -3041,18 +3044,18 @@
         <v>74212</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3064,13 +3067,13 @@
         <v>2984</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3079,13 +3082,13 @@
         <v>1315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3094,13 +3097,13 @@
         <v>4300</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3118,13 @@
         <v>20836</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -3130,13 +3133,13 @@
         <v>20703</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -3145,13 +3148,13 @@
         <v>41539</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3169,13 @@
         <v>33243</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -3181,13 +3184,13 @@
         <v>27751</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -3196,13 +3199,13 @@
         <v>60994</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3220,13 @@
         <v>2027</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3232,13 +3235,13 @@
         <v>4910</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3247,13 +3250,13 @@
         <v>6937</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3271,13 @@
         <v>59090</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>51</v>
@@ -3283,13 +3286,13 @@
         <v>54680</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>102</v>
@@ -3298,13 +3301,13 @@
         <v>113770</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3324,13 @@
         <v>5416</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -3336,13 +3339,13 @@
         <v>6346</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -3351,13 +3354,13 @@
         <v>11761</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3375,13 @@
         <v>28142</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -3387,13 +3390,13 @@
         <v>36677</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M35" s="7">
         <v>58</v>
@@ -3402,13 +3405,13 @@
         <v>64819</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3426,13 @@
         <v>62656</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -3438,13 +3441,13 @@
         <v>45545</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M36" s="7">
         <v>97</v>
@@ -3453,13 +3456,13 @@
         <v>108201</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3477,13 @@
         <v>15373</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -3489,13 +3492,13 @@
         <v>21494</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -3504,13 +3507,13 @@
         <v>36867</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3528,13 @@
         <v>111587</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>100</v>
@@ -3540,13 +3543,13 @@
         <v>110061</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="7">
         <v>196</v>
@@ -3555,18 +3558,18 @@
         <v>221648</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034FC47A-0CC9-4D8B-903F-0DA7BDB52E58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4428AAB0-988C-445E-876B-23DAF9C8BA8A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3608,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4393,13 +4396,13 @@
         <v>2135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4408,13 +4411,13 @@
         <v>2232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4423,13 +4426,13 @@
         <v>4367</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4447,13 @@
         <v>6148</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4459,13 +4462,13 @@
         <v>4654</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4474,13 +4477,13 @@
         <v>10801</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4498,13 @@
         <v>8661</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -4510,13 +4513,13 @@
         <v>3123</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4525,13 +4528,13 @@
         <v>11784</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4549,13 @@
         <v>8618</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4561,13 +4564,13 @@
         <v>1027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4576,13 +4579,13 @@
         <v>9646</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4600,13 @@
         <v>25561</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4612,13 +4615,13 @@
         <v>11037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -4627,18 +4630,18 @@
         <v>36598</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4650,13 +4653,13 @@
         <v>6876</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4665,13 +4668,13 @@
         <v>1115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -4680,13 +4683,13 @@
         <v>7992</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4704,13 @@
         <v>5550</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -4716,13 +4719,13 @@
         <v>17129</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -4731,13 +4734,13 @@
         <v>22679</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4755,13 @@
         <v>25355</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4767,13 +4770,13 @@
         <v>14402</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -4782,13 +4785,13 @@
         <v>39757</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4806,13 @@
         <v>12650</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -4818,13 +4821,13 @@
         <v>5194</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -4833,13 +4836,13 @@
         <v>17844</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4857,13 @@
         <v>50431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -4869,13 +4872,13 @@
         <v>37840</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>77</v>
@@ -4884,18 +4887,18 @@
         <v>88271</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4907,13 +4910,13 @@
         <v>2799</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4922,13 +4925,13 @@
         <v>2359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -4937,13 +4940,13 @@
         <v>5158</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4961,13 @@
         <v>18413</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -4973,13 +4976,13 @@
         <v>12025</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -4988,13 +4991,13 @@
         <v>30438</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5012,13 @@
         <v>54081</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H31" s="7">
         <v>36</v>
@@ -5024,13 +5027,13 @@
         <v>42506</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M31" s="7">
         <v>90</v>
@@ -5039,13 +5042,13 @@
         <v>96588</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5063,13 @@
         <v>9607</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -5075,13 +5078,13 @@
         <v>9502</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -5090,13 +5093,13 @@
         <v>19109</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5114,13 @@
         <v>84899</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>56</v>
@@ -5126,13 +5129,13 @@
         <v>66393</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>144</v>
@@ -5141,13 +5144,13 @@
         <v>151293</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5167,13 @@
         <v>11809</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -5179,13 +5182,13 @@
         <v>5707</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -5194,13 +5197,13 @@
         <v>17516</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5218,13 @@
         <v>30111</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -5230,13 +5233,13 @@
         <v>33808</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M35" s="7">
         <v>60</v>
@@ -5245,13 +5248,13 @@
         <v>63919</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5269,13 @@
         <v>88097</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -5281,13 +5284,13 @@
         <v>60032</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M36" s="7">
         <v>136</v>
@@ -5296,13 +5299,13 @@
         <v>148129</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5320,13 @@
         <v>30875</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -5332,10 +5335,10 @@
         <v>15723</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>290</v>
@@ -5368,13 +5371,13 @@
         <v>160892</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>99</v>
@@ -5383,13 +5386,13 @@
         <v>115270</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="7">
         <v>254</v>
@@ -5398,18 +5401,18 @@
         <v>276162</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5431,7 +5434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FDBCB-E3C8-457D-A7F2-13862009FF36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6735EDE5-D4A0-4A21-BD45-43AD5289982A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6407,10 +6410,10 @@
         <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -6419,13 +6422,13 @@
         <v>34824</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6443,13 @@
         <v>135513</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>113</v>
@@ -6455,13 +6458,13 @@
         <v>71947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>197</v>
@@ -6470,18 +6473,18 @@
         <v>207460</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6493,13 +6496,13 @@
         <v>6916</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6508,13 +6511,13 @@
         <v>4959</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -6523,13 +6526,13 @@
         <v>11875</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,10 +6547,10 @@
         <v>51987</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>308</v>
@@ -6559,13 +6562,13 @@
         <v>54343</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
@@ -6574,13 +6577,13 @@
         <v>106330</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6598,13 @@
         <v>77579</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -6610,13 +6613,13 @@
         <v>66296</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -6625,13 +6628,13 @@
         <v>143875</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6649,13 @@
         <v>47781</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -6661,13 +6664,13 @@
         <v>34056</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>116</v>
+        <v>356</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M27" s="7">
         <v>107</v>
@@ -6676,13 +6679,13 @@
         <v>81838</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6700,13 @@
         <v>184263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>267</v>
@@ -6712,13 +6715,13 @@
         <v>159655</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>473</v>
@@ -6727,18 +6730,18 @@
         <v>343918</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6750,13 +6753,13 @@
         <v>10382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -6765,13 +6768,13 @@
         <v>7235</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -6780,13 +6783,13 @@
         <v>17617</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,10 +6804,10 @@
         <v>55781</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>372</v>
@@ -6870,10 +6873,10 @@
         <v>382</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>383</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M31" s="7">
         <v>508</v>
@@ -6882,13 +6885,13 @@
         <v>322352</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,13 +6906,13 @@
         <v>55212</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H32" s="7">
         <v>78</v>
@@ -6918,13 +6921,13 @@
         <v>44999</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M32" s="7">
         <v>157</v>
@@ -6933,13 +6936,13 @@
         <v>100211</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +6957,13 @@
         <v>276875</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>487</v>
@@ -6969,13 +6972,13 @@
         <v>275812</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>883</v>
@@ -6984,13 +6987,13 @@
         <v>552688</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +7010,13 @@
         <v>18379</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H34" s="7">
         <v>29</v>
@@ -7022,13 +7025,13 @@
         <v>17036</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M34" s="7">
         <v>53</v>
@@ -7037,13 +7040,13 @@
         <v>35415</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7061,13 @@
         <v>136283</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H35" s="7">
         <v>236</v>
@@ -7073,13 +7076,13 @@
         <v>131022</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M35" s="7">
         <v>400</v>
@@ -7088,13 +7091,13 @@
         <v>267305</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,13 +7112,13 @@
         <v>320720</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H36" s="7">
         <v>444</v>
@@ -7124,13 +7127,13 @@
         <v>263753</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M36" s="7">
         <v>793</v>
@@ -7139,13 +7142,13 @@
         <v>584474</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7163,13 @@
         <v>121269</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H37" s="7">
         <v>158</v>
@@ -7175,13 +7178,13 @@
         <v>95603</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M37" s="7">
         <v>307</v>
@@ -7190,13 +7193,13 @@
         <v>216873</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7214,13 @@
         <v>596652</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>867</v>
@@ -7226,13 +7229,13 @@
         <v>507414</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="7">
         <v>1553</v>
@@ -7241,18 +7244,18 @@
         <v>1104066</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BD2FE1-EE90-48B6-9899-C92069FB8392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC7CC16-AA5D-4100-BA9D-E46AE8D55A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E8706DE-DDE9-4B9D-9FA9-C2FC6D9908EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C262C2B8-BB67-421E-849A-99B445DE0637}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="426">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -106,1237 +106,1216 @@
     <t>5,45%</t>
   </si>
   <si>
-    <t>26,41%</t>
+    <t>27,42%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>55,2%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
     <t>52,94%</t>
   </si>
   <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CF3B63-05C3-4A6C-8497-BCD3FE2FD235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FD9F7-53F4-4108-9CCC-DBDE7CD1998F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2622,10 +2601,10 @@
         <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2634,13 +2613,13 @@
         <v>6589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2634,13 @@
         <v>8405</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2670,10 +2649,10 @@
         <v>7454</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>35</v>
@@ -2966,10 +2945,10 @@
         <v>76</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -2978,13 +2957,13 @@
         <v>11234</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M27" s="7">
         <v>18</v>
@@ -2993,13 +2972,13 @@
         <v>19829</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3034,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3067,13 +3046,13 @@
         <v>2984</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3082,13 +3061,13 @@
         <v>1315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3097,13 +3076,13 @@
         <v>4300</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3097,13 @@
         <v>20836</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -3133,13 +3112,13 @@
         <v>20703</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -3148,13 +3127,13 @@
         <v>41539</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3148,13 @@
         <v>33243</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -3184,13 +3163,13 @@
         <v>27751</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -3199,13 +3178,13 @@
         <v>60994</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3199,13 @@
         <v>2027</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3235,13 +3214,13 @@
         <v>4910</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3250,13 +3229,13 @@
         <v>6937</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3303,13 @@
         <v>5416</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -3339,13 +3318,13 @@
         <v>6346</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -3354,13 +3333,13 @@
         <v>11761</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3354,13 @@
         <v>28142</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -3390,13 +3369,13 @@
         <v>36677</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M35" s="7">
         <v>58</v>
@@ -3405,13 +3384,13 @@
         <v>64819</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3405,13 @@
         <v>62656</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -3441,13 +3420,13 @@
         <v>45545</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M36" s="7">
         <v>97</v>
@@ -3456,13 +3435,13 @@
         <v>108201</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3456,13 @@
         <v>15373</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -3492,13 +3471,13 @@
         <v>21494</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -3507,13 +3486,13 @@
         <v>36867</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3548,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3591,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4428AAB0-988C-445E-876B-23DAF9C8BA8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA5544-7F2D-4BFB-8E9B-03C90D082076}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3608,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4396,13 +4375,13 @@
         <v>2135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4411,13 +4390,13 @@
         <v>2232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4426,13 +4405,13 @@
         <v>4367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4426,13 @@
         <v>6148</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4462,13 +4441,13 @@
         <v>4654</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4477,13 +4456,13 @@
         <v>10801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4477,13 @@
         <v>8661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -4513,13 +4492,13 @@
         <v>3123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4528,13 +4507,13 @@
         <v>11784</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4528,13 @@
         <v>8618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4564,13 +4543,13 @@
         <v>1027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4579,13 +4558,13 @@
         <v>9646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4632,13 @@
         <v>6876</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4668,13 +4647,13 @@
         <v>1115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -4683,13 +4662,13 @@
         <v>7992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4683,13 @@
         <v>5550</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -4719,13 +4698,13 @@
         <v>17129</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -4734,13 +4713,13 @@
         <v>22679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4734,13 @@
         <v>25355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4770,13 +4749,13 @@
         <v>14402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -4785,13 +4764,13 @@
         <v>39757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4785,13 @@
         <v>12650</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -4821,13 +4800,13 @@
         <v>5194</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -4836,13 +4815,13 @@
         <v>17844</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4877,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4910,13 +4889,13 @@
         <v>2799</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4925,13 +4904,13 @@
         <v>2359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -4940,13 +4919,13 @@
         <v>5158</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4940,13 @@
         <v>18413</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -4976,13 +4955,13 @@
         <v>12025</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -4991,13 +4970,13 @@
         <v>30438</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +4991,13 @@
         <v>54081</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H31" s="7">
         <v>36</v>
@@ -5027,13 +5006,13 @@
         <v>42506</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M31" s="7">
         <v>90</v>
@@ -5042,13 +5021,13 @@
         <v>96588</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5042,13 @@
         <v>9607</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -5078,13 +5057,13 @@
         <v>9502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -5093,13 +5072,13 @@
         <v>19109</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5146,13 @@
         <v>11809</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -5182,13 +5161,13 @@
         <v>5707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -5197,13 +5176,13 @@
         <v>17516</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5197,13 @@
         <v>30111</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -5233,13 +5212,13 @@
         <v>33808</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M35" s="7">
         <v>60</v>
@@ -5248,13 +5227,13 @@
         <v>63919</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5248,13 @@
         <v>88097</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -5284,13 +5263,13 @@
         <v>60032</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M36" s="7">
         <v>136</v>
@@ -5299,13 +5278,13 @@
         <v>148129</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5299,13 @@
         <v>30875</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -5335,13 +5314,13 @@
         <v>15723</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -5350,13 +5329,13 @@
         <v>46598</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,7 +5391,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5434,7 +5413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6735EDE5-D4A0-4A21-BD45-43AD5289982A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A94BE2-1E86-4132-82FD-E17F96DFAF09}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5451,7 +5430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6239,13 +6218,13 @@
         <v>1081</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6254,13 +6233,13 @@
         <v>4841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6269,13 +6248,13 @@
         <v>5922</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6269,13 @@
         <v>28515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -6305,13 +6284,13 @@
         <v>19952</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -6320,13 +6299,13 @@
         <v>48467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,13 +6320,13 @@
         <v>87641</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -6356,13 +6335,13 @@
         <v>30606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
@@ -6371,13 +6350,13 @@
         <v>118247</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6371,13 @@
         <v>18276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6407,13 +6386,13 @@
         <v>16548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -6422,13 +6401,13 @@
         <v>34824</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6475,13 @@
         <v>6916</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6511,13 +6490,13 @@
         <v>4959</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>115</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -6526,13 +6505,13 @@
         <v>11875</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6526,13 @@
         <v>51987</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -6562,13 +6541,13 @@
         <v>54343</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
@@ -6577,13 +6556,13 @@
         <v>106330</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6577,13 @@
         <v>77579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -6613,13 +6592,13 @@
         <v>66296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -6628,13 +6607,13 @@
         <v>143875</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6628,13 @@
         <v>47781</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>179</v>
+        <v>352</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -6664,13 +6643,13 @@
         <v>34056</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>358</v>
+        <v>99</v>
       </c>
       <c r="M27" s="7">
         <v>107</v>
@@ -6679,13 +6658,13 @@
         <v>81838</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,7 +6720,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6753,13 +6732,13 @@
         <v>10382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -6768,13 +6747,13 @@
         <v>7235</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -6783,13 +6762,13 @@
         <v>17617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6783,13 @@
         <v>55781</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>371</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -6819,13 +6798,13 @@
         <v>56727</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>375</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>190</v>
@@ -6834,13 +6813,13 @@
         <v>112508</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6834,13 @@
         <v>155501</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H31" s="7">
         <v>285</v>
@@ -6870,13 +6849,13 @@
         <v>166851</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M31" s="7">
         <v>508</v>
@@ -6885,13 +6864,13 @@
         <v>322352</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6885,13 @@
         <v>55212</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H32" s="7">
         <v>78</v>
@@ -6921,13 +6900,13 @@
         <v>44999</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="M32" s="7">
         <v>157</v>
@@ -6936,13 +6915,13 @@
         <v>100211</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,13 +6989,13 @@
         <v>18379</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H34" s="7">
         <v>29</v>
@@ -7025,13 +7004,13 @@
         <v>17036</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M34" s="7">
         <v>53</v>
@@ -7040,13 +7019,13 @@
         <v>35415</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7040,13 @@
         <v>136283</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H35" s="7">
         <v>236</v>
@@ -7076,13 +7055,13 @@
         <v>131022</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M35" s="7">
         <v>400</v>
@@ -7091,13 +7070,13 @@
         <v>267305</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7091,13 @@
         <v>320720</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H36" s="7">
         <v>444</v>
@@ -7127,13 +7106,13 @@
         <v>263753</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M36" s="7">
         <v>793</v>
@@ -7142,13 +7121,13 @@
         <v>584474</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,13 +7142,13 @@
         <v>121269</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H37" s="7">
         <v>158</v>
@@ -7178,13 +7157,13 @@
         <v>95603</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M37" s="7">
         <v>307</v>
@@ -7193,13 +7172,13 @@
         <v>216873</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,7 +7234,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC7CC16-AA5D-4100-BA9D-E46AE8D55A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C457A58-5358-4618-86BD-9CE92995FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C262C2B8-BB67-421E-849A-99B445DE0637}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{35E0A3DD-2F88-4D13-B07F-727F259CC4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="515">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Me lo sugirió otro médico del servicio privado</t>
@@ -85,13 +85,13 @@
     <t>Lo solicité yo mismo/a</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -187,7 +187,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>6,18%</t>
@@ -292,1030 +292,1297 @@
     <t>38,51%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1994,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FD9F7-53F4-4108-9CCC-DBDE7CD1998F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A041D4AD-5510-441A-A70B-D8AB3A412C04}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3040,10 +3307,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>2984</v>
+        <v>2032</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>85</v>
@@ -3055,34 +3322,34 @@
         <v>86</v>
       </c>
       <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" s="7">
         <v>1</v>
       </c>
-      <c r="I29" s="7">
-        <v>1315</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="N29" s="7">
+        <v>2032</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
-        <v>4300</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +3358,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>20836</v>
+        <v>12609</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11721</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="7">
-        <v>20</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20703</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>21</v>
+      </c>
+      <c r="N30" s="7">
+        <v>24330</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M30" s="7">
-        <v>37</v>
-      </c>
-      <c r="N30" s="7">
-        <v>41539</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +3409,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D31" s="7">
-        <v>33243</v>
+        <v>17110</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7">
+        <v>16755</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="7">
-        <v>26</v>
-      </c>
-      <c r="I31" s="7">
-        <v>27751</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>32</v>
+      </c>
+      <c r="N31" s="7">
+        <v>33865</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M31" s="7">
-        <v>56</v>
-      </c>
-      <c r="N31" s="7">
-        <v>60994</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,19 +3460,19 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>2027</v>
+        <v>984</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3214,28 +3481,28 @@
         <v>4910</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5894</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="7">
-        <v>6</v>
-      </c>
-      <c r="N32" s="7">
-        <v>6937</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,10 +3511,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D33" s="7">
-        <v>59090</v>
+        <v>32735</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -3259,10 +3526,10 @@
         <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I33" s="7">
-        <v>54680</v>
+        <v>33386</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -3274,10 +3541,10 @@
         <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="N33" s="7">
-        <v>113770</v>
+        <v>66121</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -3291,55 +3558,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>5416</v>
+        <v>952</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1315</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2268</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="7">
-        <v>5</v>
-      </c>
-      <c r="I34" s="7">
-        <v>6346</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M34" s="7">
-        <v>8</v>
-      </c>
-      <c r="N34" s="7">
-        <v>11761</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,49 +3615,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7">
-        <v>28142</v>
+        <v>8227</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="7">
+        <v>8</v>
+      </c>
+      <c r="I35" s="7">
+        <v>8983</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>16</v>
+      </c>
+      <c r="N35" s="7">
+        <v>17209</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H35" s="7">
-        <v>34</v>
-      </c>
-      <c r="I35" s="7">
-        <v>36677</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M35" s="7">
-        <v>58</v>
-      </c>
-      <c r="N35" s="7">
-        <v>64819</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,49 +3666,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D36" s="7">
-        <v>62656</v>
+        <v>16132</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="7">
+        <v>10</v>
+      </c>
+      <c r="I36" s="7">
+        <v>10997</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M36" s="7">
+        <v>24</v>
+      </c>
+      <c r="N36" s="7">
+        <v>27129</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="7">
-        <v>42</v>
-      </c>
-      <c r="I36" s="7">
-        <v>45545</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M36" s="7">
-        <v>97</v>
-      </c>
-      <c r="N36" s="7">
-        <v>108201</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,49 +3717,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>15373</v>
+        <v>1043</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="7">
-        <v>21494</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M37" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>36867</v>
+        <v>1043</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,63 +3768,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>24</v>
+      </c>
+      <c r="D38" s="7">
+        <v>26354</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7">
+        <v>19</v>
+      </c>
+      <c r="I38" s="7">
+        <v>21295</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="7">
+        <v>43</v>
+      </c>
+      <c r="N38" s="7">
+        <v>47649</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>3</v>
+      </c>
+      <c r="D39" s="7">
+        <v>5416</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5</v>
+      </c>
+      <c r="I39" s="7">
+        <v>6346</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M39" s="7">
+        <v>8</v>
+      </c>
+      <c r="N39" s="7">
+        <v>11761</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>24</v>
+      </c>
+      <c r="D40" s="7">
+        <v>28142</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="7">
+        <v>34</v>
+      </c>
+      <c r="I40" s="7">
+        <v>36677</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M40" s="7">
+        <v>58</v>
+      </c>
+      <c r="N40" s="7">
+        <v>64819</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>55</v>
+      </c>
+      <c r="D41" s="7">
+        <v>62656</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" s="7">
+        <v>42</v>
+      </c>
+      <c r="I41" s="7">
+        <v>45545</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M41" s="7">
+        <v>97</v>
+      </c>
+      <c r="N41" s="7">
+        <v>108201</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7">
+        <v>15373</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="7">
+        <v>19</v>
+      </c>
+      <c r="I42" s="7">
+        <v>21494</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M42" s="7">
+        <v>33</v>
+      </c>
+      <c r="N42" s="7">
+        <v>36867</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>96</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>111587</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
         <v>100</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>110061</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="7">
         <v>196</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>221648</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>152</v>
+      <c r="O43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3570,8 +4095,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA5544-7F2D-4BFB-8E9B-03C90D082076}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90811B82-2EB1-4C34-AA2A-C79926B883ED}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3587,7 +4112,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4375,13 +4900,13 @@
         <v>2135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4390,13 +4915,13 @@
         <v>2232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4405,13 +4930,13 @@
         <v>4367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4951,13 @@
         <v>6148</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4441,13 +4966,13 @@
         <v>4654</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4456,13 +4981,13 @@
         <v>10801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,10 +5005,10 @@
         <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -4492,13 +5017,13 @@
         <v>3123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4507,13 +5032,13 @@
         <v>11784</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +5053,13 @@
         <v>8618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4543,13 +5068,13 @@
         <v>1027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4558,13 +5083,13 @@
         <v>9646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +5157,13 @@
         <v>6876</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4647,13 +5172,13 @@
         <v>1115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -4662,13 +5187,13 @@
         <v>7992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +5208,13 @@
         <v>5550</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -4698,13 +5223,13 @@
         <v>17129</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -4713,13 +5238,13 @@
         <v>22679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +5259,13 @@
         <v>25355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4749,13 +5274,13 @@
         <v>14402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -4764,13 +5289,13 @@
         <v>39757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +5310,13 @@
         <v>12650</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -4800,13 +5325,13 @@
         <v>5194</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -4815,13 +5340,13 @@
         <v>17844</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,49 +5408,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>2799</v>
+        <v>1059</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>2359</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1059</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M29" s="7">
-        <v>5</v>
-      </c>
-      <c r="N29" s="7">
-        <v>5158</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,49 +5459,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>18413</v>
+        <v>7610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="H30" s="7">
+        <v>2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2030</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" s="7">
         <v>10</v>
       </c>
-      <c r="I30" s="7">
-        <v>12025</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M30" s="7">
-        <v>31</v>
-      </c>
       <c r="N30" s="7">
-        <v>30438</v>
+        <v>9641</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,49 +5510,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D31" s="7">
-        <v>54081</v>
+        <v>28348</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="H31" s="7">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I31" s="7">
-        <v>42506</v>
+        <v>20225</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="M31" s="7">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N31" s="7">
-        <v>96588</v>
+        <v>48573</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,49 +5561,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>9607</v>
+        <v>7915</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="H32" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>9502</v>
+        <v>8160</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M32" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N32" s="7">
-        <v>19109</v>
+        <v>16075</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,10 +5612,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D33" s="7">
-        <v>84899</v>
+        <v>44932</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -5102,10 +5627,10 @@
         <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I33" s="7">
-        <v>66393</v>
+        <v>30416</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -5117,10 +5642,10 @@
         <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="N33" s="7">
-        <v>151293</v>
+        <v>75348</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -5134,55 +5659,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>11809</v>
+        <v>1739</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="H34" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>5707</v>
+        <v>2359</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="M34" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N34" s="7">
-        <v>17516</v>
+        <v>4098</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,49 +5716,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D35" s="7">
-        <v>30111</v>
+        <v>10803</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="H35" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I35" s="7">
-        <v>33808</v>
+        <v>9995</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="M35" s="7">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="N35" s="7">
-        <v>63919</v>
+        <v>20798</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,49 +5767,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D36" s="7">
-        <v>88097</v>
+        <v>25733</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="H36" s="7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I36" s="7">
-        <v>60032</v>
+        <v>22281</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="M36" s="7">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="N36" s="7">
-        <v>148129</v>
+        <v>48015</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,49 +5818,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>30875</v>
+        <v>1692</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H37" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>15723</v>
+        <v>1342</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M37" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>46598</v>
+        <v>3034</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,63 +5869,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>46</v>
+      </c>
+      <c r="D38" s="7">
+        <v>39968</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7">
+        <v>27</v>
+      </c>
+      <c r="I38" s="7">
+        <v>35977</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="7">
+        <v>73</v>
+      </c>
+      <c r="N38" s="7">
+        <v>75945</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7">
+        <v>11809</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5</v>
+      </c>
+      <c r="I39" s="7">
+        <v>5707</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M39" s="7">
+        <v>16</v>
+      </c>
+      <c r="N39" s="7">
+        <v>17516</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>31</v>
+      </c>
+      <c r="D40" s="7">
+        <v>30111</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H40" s="7">
+        <v>29</v>
+      </c>
+      <c r="I40" s="7">
+        <v>33808</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M40" s="7">
+        <v>60</v>
+      </c>
+      <c r="N40" s="7">
+        <v>63919</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>84</v>
+      </c>
+      <c r="D41" s="7">
+        <v>88097</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H41" s="7">
+        <v>52</v>
+      </c>
+      <c r="I41" s="7">
+        <v>60032</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M41" s="7">
+        <v>136</v>
+      </c>
+      <c r="N41" s="7">
+        <v>148129</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>29</v>
+      </c>
+      <c r="D42" s="7">
+        <v>30875</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H42" s="7">
+        <v>13</v>
+      </c>
+      <c r="I42" s="7">
+        <v>15723</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M42" s="7">
+        <v>42</v>
+      </c>
+      <c r="N42" s="7">
+        <v>46598</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>155</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>160892</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
         <v>99</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>115270</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="7">
         <v>254</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>276162</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>152</v>
+      <c r="O43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5413,8 +6196,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A94BE2-1E86-4132-82FD-E17F96DFAF09}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FE9F51-FFCC-4BAB-B7E9-6F703C336754}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5430,7 +6213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6215,46 +6998,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1081</v>
+        <v>1037</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>4841</v>
+        <v>4589</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>5922</v>
+        <v>5625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,46 +7049,46 @@
         <v>28</v>
       </c>
       <c r="D20" s="7">
-        <v>28515</v>
+        <v>28523</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
       </c>
       <c r="I20" s="7">
-        <v>19952</v>
+        <v>18960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>355</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>48467</v>
+        <v>47483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,46 +7100,46 @@
         <v>37</v>
       </c>
       <c r="D21" s="7">
-        <v>87641</v>
+        <v>280022</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
       </c>
       <c r="I21" s="7">
-        <v>30606</v>
+        <v>28500</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
       </c>
       <c r="N21" s="7">
-        <v>118247</v>
+        <v>308522</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,46 +7151,46 @@
         <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>18276</v>
+        <v>16956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>16548</v>
+        <v>15329</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
       </c>
       <c r="N22" s="7">
-        <v>34824</v>
+        <v>32285</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,7 +7202,7 @@
         <v>84</v>
       </c>
       <c r="D23" s="7">
-        <v>135513</v>
+        <v>326538</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -6434,7 +7217,7 @@
         <v>113</v>
       </c>
       <c r="I23" s="7">
-        <v>71947</v>
+        <v>67378</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -6449,7 +7232,7 @@
         <v>197</v>
       </c>
       <c r="N23" s="7">
-        <v>207460</v>
+        <v>393916</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -6472,46 +7255,46 @@
         <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>6916</v>
+        <v>6583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>4959</v>
+        <v>4553</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
       </c>
       <c r="N24" s="7">
-        <v>11875</v>
+        <v>11136</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,46 +7306,46 @@
         <v>57</v>
       </c>
       <c r="D25" s="7">
-        <v>51987</v>
+        <v>50851</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
       </c>
       <c r="I25" s="7">
-        <v>54343</v>
+        <v>51120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
       </c>
       <c r="N25" s="7">
-        <v>106330</v>
+        <v>101971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,46 +7357,46 @@
         <v>89</v>
       </c>
       <c r="D26" s="7">
-        <v>77579</v>
+        <v>73320</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>397</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
       </c>
       <c r="I26" s="7">
-        <v>66296</v>
+        <v>60859</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
       </c>
       <c r="N26" s="7">
-        <v>143875</v>
+        <v>134179</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,46 +7408,46 @@
         <v>52</v>
       </c>
       <c r="D27" s="7">
-        <v>47781</v>
+        <v>43760</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
       </c>
       <c r="I27" s="7">
-        <v>34056</v>
+        <v>31199</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>99</v>
+        <v>408</v>
       </c>
       <c r="M27" s="7">
         <v>107</v>
       </c>
       <c r="N27" s="7">
-        <v>81838</v>
+        <v>74959</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,7 +7459,7 @@
         <v>206</v>
       </c>
       <c r="D28" s="7">
-        <v>184263</v>
+        <v>174514</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>48</v>
@@ -6691,7 +7474,7 @@
         <v>267</v>
       </c>
       <c r="I28" s="7">
-        <v>159655</v>
+        <v>147732</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>48</v>
@@ -6706,7 +7489,7 @@
         <v>473</v>
       </c>
       <c r="N28" s="7">
-        <v>343918</v>
+        <v>322246</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
@@ -6726,49 +7509,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>10382</v>
+        <v>6218</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="H29" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>7235</v>
+        <v>5291</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="M29" s="7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N29" s="7">
-        <v>17617</v>
+        <v>11509</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,49 +7560,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D30" s="7">
-        <v>55781</v>
+        <v>38172</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>176</v>
+        <v>421</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="H30" s="7">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="I30" s="7">
-        <v>56727</v>
+        <v>36737</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>425</v>
       </c>
       <c r="M30" s="7">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="N30" s="7">
-        <v>112508</v>
+        <v>74909</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,49 +7611,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="D31" s="7">
-        <v>155501</v>
+        <v>84258</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="H31" s="7">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="I31" s="7">
-        <v>166851</v>
+        <v>69345</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="M31" s="7">
-        <v>508</v>
+        <v>271</v>
       </c>
       <c r="N31" s="7">
-        <v>322352</v>
+        <v>153602</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,49 +7662,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D32" s="7">
-        <v>55212</v>
+        <v>30620</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="H32" s="7">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I32" s="7">
-        <v>44999</v>
+        <v>27389</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>117</v>
+        <v>441</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="M32" s="7">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="N32" s="7">
-        <v>100211</v>
+        <v>58009</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>396</v>
+        <v>242</v>
       </c>
       <c r="D33" s="7">
-        <v>276875</v>
+        <v>159268</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -6945,10 +7728,10 @@
         <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>487</v>
+        <v>281</v>
       </c>
       <c r="I33" s="7">
-        <v>275812</v>
+        <v>138762</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -6960,10 +7743,10 @@
         <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>883</v>
+        <v>523</v>
       </c>
       <c r="N33" s="7">
-        <v>552688</v>
+        <v>298029</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -6977,55 +7760,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D34" s="7">
-        <v>18379</v>
+        <v>3808</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="H34" s="7">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>17036</v>
+        <v>1370</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="M34" s="7">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="N34" s="7">
-        <v>35415</v>
+        <v>5178</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,49 +7817,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="D35" s="7">
-        <v>136283</v>
+        <v>16062</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="H35" s="7">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="I35" s="7">
-        <v>131022</v>
+        <v>16299</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="M35" s="7">
-        <v>400</v>
+        <v>59</v>
       </c>
       <c r="N35" s="7">
-        <v>267305</v>
+        <v>32362</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,49 +7868,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>349</v>
+        <v>92</v>
       </c>
       <c r="D36" s="7">
-        <v>320720</v>
+        <v>58729</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="H36" s="7">
-        <v>444</v>
+        <v>145</v>
       </c>
       <c r="I36" s="7">
-        <v>263753</v>
+        <v>76379</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="M36" s="7">
-        <v>793</v>
+        <v>237</v>
       </c>
       <c r="N36" s="7">
-        <v>584474</v>
+        <v>135108</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,49 +7919,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="D37" s="7">
-        <v>121269</v>
+        <v>19368</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="H37" s="7">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="I37" s="7">
-        <v>95603</v>
+        <v>12282</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="M37" s="7">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="N37" s="7">
-        <v>216873</v>
+        <v>31650</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,63 +7970,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>154</v>
+      </c>
+      <c r="D38" s="7">
+        <v>97967</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7">
+        <v>206</v>
+      </c>
+      <c r="I38" s="7">
+        <v>106331</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="7">
+        <v>360</v>
+      </c>
+      <c r="N38" s="7">
+        <v>204298</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>24</v>
+      </c>
+      <c r="D39" s="7">
+        <v>17646</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H39" s="7">
+        <v>29</v>
+      </c>
+      <c r="I39" s="7">
+        <v>15803</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M39" s="7">
+        <v>53</v>
+      </c>
+      <c r="N39" s="7">
+        <v>33449</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>164</v>
+      </c>
+      <c r="D40" s="7">
+        <v>133609</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H40" s="7">
+        <v>236</v>
+      </c>
+      <c r="I40" s="7">
+        <v>123117</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="M40" s="7">
+        <v>400</v>
+      </c>
+      <c r="N40" s="7">
+        <v>256725</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>349</v>
+      </c>
+      <c r="D41" s="7">
+        <v>496330</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H41" s="7">
+        <v>444</v>
+      </c>
+      <c r="I41" s="7">
+        <v>235084</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="M41" s="7">
+        <v>793</v>
+      </c>
+      <c r="N41" s="7">
+        <v>731413</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>149</v>
+      </c>
+      <c r="D42" s="7">
+        <v>110704</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H42" s="7">
+        <v>158</v>
+      </c>
+      <c r="I42" s="7">
+        <v>86199</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="M42" s="7">
+        <v>307</v>
+      </c>
+      <c r="N42" s="7">
+        <v>196903</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>686</v>
       </c>
-      <c r="D38" s="7">
-        <v>596652</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>758288</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
         <v>867</v>
       </c>
-      <c r="I38" s="7">
-        <v>507414</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>460203</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="7">
         <v>1553</v>
       </c>
-      <c r="N38" s="7">
-        <v>1104066</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>152</v>
+      <c r="N43" s="7">
+        <v>1218491</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
